--- a/analysis/all_sites/raw_data/Ramioul_lithic_analysis.xlsx
+++ b/analysis/all_sites/raw_data/Ramioul_lithic_analysis.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schunk\Documents\GitHub\Lithic_analysis_archaeology\analysis\all_sites\raw_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -38,8 +33,8 @@
     <sheet name="S_edge_retouch" sheetId="24" r:id="rId24"/>
     <sheet name="KM_morpho.type" sheetId="25" r:id="rId25"/>
     <sheet name="PS_morpho.type" sheetId="26" r:id="rId26"/>
-    <sheet name="KM_Pradnick.method" sheetId="27" r:id="rId27"/>
-    <sheet name="PS_Pradnick.method" sheetId="28" r:id="rId28"/>
+    <sheet name="KM_Pradnik.method" sheetId="27" r:id="rId27"/>
+    <sheet name="PS_Pradnik.method" sheetId="28" r:id="rId28"/>
     <sheet name="KM_lateralisation" sheetId="29" r:id="rId29"/>
     <sheet name="PS_lateralisation" sheetId="30" r:id="rId30"/>
   </sheets>
@@ -48,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="95">
   <si>
     <t>site</t>
   </si>
@@ -92,10 +87,10 @@
     <t>tip.morphology</t>
   </si>
   <si>
-    <t>application.pradnick.method</t>
-  </si>
-  <si>
-    <t>frequency.application.pradnick.method</t>
+    <t>application.Pradnik.method</t>
+  </si>
+  <si>
+    <t>frequency.application.Pradnik.method</t>
   </si>
   <si>
     <t>type.lateral.sharpening.spall</t>
@@ -119,7 +114,7 @@
     <t>perimeter.basis.back</t>
   </si>
   <si>
-    <t>perimeter.arch</t>
+    <t>perimeter.distal.posterior.part</t>
   </si>
   <si>
     <t>perimeter.active.edge</t>
@@ -254,7 +249,7 @@
     <t>R-006</t>
   </si>
   <si>
-    <t>Pradnick</t>
+    <t>Pradnik</t>
   </si>
   <si>
     <t>retouched</t>
@@ -275,7 +270,7 @@
     <t>R-010</t>
   </si>
   <si>
-    <t>Pradnick_scraper</t>
+    <t>Pradnik_scraper</t>
   </si>
   <si>
     <t>R-011</t>
@@ -293,9 +288,6 @@
     <t>R-014</t>
   </si>
   <si>
-    <t>clear_blunting</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
@@ -330,12 +322,18 @@
   </si>
   <si>
     <t>R-020</t>
+  </si>
+  <si>
+    <t>application.Pradnikmethod</t>
+  </si>
+  <si>
+    <t>frequency.application.Pradnikmethod</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,9 +374,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -669,9 +664,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -715,10 +710,10 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="Q1" t="s">
         <v>16</v>
@@ -775,7 +770,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -873,7 +868,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -971,7 +966,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1054,7 +1049,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1137,7 +1132,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1214,7 +1209,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1306,7 +1301,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1404,7 +1399,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1502,7 +1497,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1585,7 +1580,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1677,7 +1672,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1775,7 +1770,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1852,7 +1847,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1929,7 +1924,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1955,7 +1950,7 @@
         <v>51</v>
       </c>
       <c r="K15" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="L15" t="s">
         <v>41</v>
@@ -1964,7 +1959,7 @@
         <v>56</v>
       </c>
       <c r="N15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O15" t="s">
         <v>41</v>
@@ -1973,7 +1968,7 @@
         <v>47</v>
       </c>
       <c r="R15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S15">
         <v>48</v>
@@ -2021,12 +2016,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -2086,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="AB16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC16" t="s">
         <v>50</v>
@@ -2104,12 +2099,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -2130,7 +2125,7 @@
         <v>51</v>
       </c>
       <c r="K17" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s">
         <v>41</v>
@@ -2193,15 +2188,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
         <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>58</v>
@@ -2270,12 +2265,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -2299,7 +2294,7 @@
         <v>42</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
         <v>44</v>
@@ -2311,7 +2306,7 @@
         <v>45</v>
       </c>
       <c r="N19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O19" t="s">
         <v>41</v>
@@ -2320,7 +2315,7 @@
         <v>47</v>
       </c>
       <c r="R19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S19">
         <v>78</v>
@@ -2350,7 +2345,7 @@
         <v>7</v>
       </c>
       <c r="AB19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC19" t="s">
         <v>50</v>
@@ -2368,12 +2363,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -2415,7 +2410,7 @@
         <v>41</v>
       </c>
       <c r="P20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R20" t="s">
         <v>48</v>
@@ -2466,15 +2461,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
@@ -2546,7 +2541,7 @@
         <v>15</v>
       </c>
       <c r="AB21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC21" t="s">
         <v>50</v>
@@ -2576,9 +2571,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2592,7 +2587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -2606,7 +2601,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2620,9 +2615,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -2646,9 +2641,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2662,7 +2657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2676,7 +2671,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -2702,9 +2697,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2718,7 +2713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2732,7 +2727,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -2746,7 +2741,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -2760,7 +2755,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -2774,9 +2769,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -2788,9 +2783,9 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -2814,9 +2809,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2830,7 +2825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2844,7 +2839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -2858,7 +2853,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -2872,7 +2867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -2886,7 +2881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -2900,7 +2895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -2914,9 +2909,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -2928,9 +2923,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -2942,9 +2937,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -2953,7 +2948,7 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2968,9 +2963,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2984,7 +2979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -2998,7 +2993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -3012,9 +3007,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -3038,9 +3033,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3054,7 +3049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3068,7 +3063,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -3094,9 +3089,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3110,7 +3105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -3124,7 +3119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -3138,7 +3133,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -3152,7 +3147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -3166,9 +3161,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -3180,9 +3175,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -3191,7 +3186,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3206,9 +3201,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3231,7 +3226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -3254,7 +3249,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -3277,7 +3272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -3297,7 +3292,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -3320,7 +3315,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -3343,7 +3338,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -3366,9 +3361,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -3386,12 +3381,12 @@
         <v>42</v>
       </c>
       <c r="G8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>91</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -3412,9 +3407,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -3447,9 +3442,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3472,7 +3467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -3489,7 +3484,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -3506,9 +3501,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -3535,9 +3530,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3554,7 +3549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -3571,7 +3566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -3588,7 +3583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -3605,7 +3600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -3622,7 +3617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -3639,7 +3634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -3656,9 +3651,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -3673,9 +3668,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -3690,9 +3685,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -3719,9 +3714,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3741,7 +3736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3761,7 +3756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -3781,7 +3776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -3801,7 +3796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -3821,7 +3816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -3841,7 +3836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -3861,7 +3856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -3881,7 +3876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -3901,9 +3896,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -3921,9 +3916,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -3941,9 +3936,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -3961,7 +3956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -3981,7 +3976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -4001,9 +3996,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
@@ -4021,7 +4016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -4041,7 +4036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -4061,7 +4056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -4081,7 +4076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -4101,9 +4096,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -4121,9 +4116,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -4153,9 +4148,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4172,7 +4167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -4189,7 +4184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -4200,15 +4195,15 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -4217,7 +4212,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -4235,9 +4230,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4257,7 +4252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -4277,7 +4272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -4297,7 +4292,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -4317,7 +4312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -4337,7 +4332,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -4357,7 +4352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -4377,9 +4372,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -4397,9 +4392,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -4417,9 +4412,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -4449,9 +4444,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4471,7 +4466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -4491,7 +4486,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -4511,9 +4506,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -4543,9 +4538,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4565,7 +4560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4585,7 +4580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -4617,9 +4612,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4639,7 +4634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4659,7 +4654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -4679,7 +4674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -4699,7 +4694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -4719,9 +4714,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -4739,9 +4734,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -4771,9 +4766,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4796,7 +4791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -4819,7 +4814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -4842,7 +4837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -4865,7 +4860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -4888,7 +4883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -4911,7 +4906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -4934,9 +4929,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -4957,9 +4952,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -4980,9 +4975,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -5015,9 +5010,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5040,7 +5035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -5063,7 +5058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -5086,9 +5081,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -5121,9 +5116,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5140,7 +5135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -5157,7 +5152,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -5174,7 +5169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -5188,7 +5183,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -5205,7 +5200,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -5222,7 +5217,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -5239,9 +5234,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -5256,26 +5251,26 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
         <v>91</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -5302,9 +5297,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5321,7 +5316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -5338,7 +5333,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -5355,9 +5350,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -5381,9 +5376,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5397,7 +5392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -5411,7 +5406,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -5425,7 +5420,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -5439,7 +5434,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -5453,7 +5448,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -5467,7 +5462,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -5481,9 +5476,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -5492,12 +5487,12 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -5509,9 +5504,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -5535,9 +5530,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5557,7 +5552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -5577,7 +5572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -5597,7 +5592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -5617,7 +5612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -5637,7 +5632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -5657,7 +5652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -5677,9 +5672,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -5697,9 +5692,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -5717,9 +5712,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -5749,9 +5744,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5765,7 +5760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -5779,7 +5774,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -5790,12 +5785,12 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -5819,9 +5814,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5841,7 +5836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -5861,7 +5856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -5881,9 +5876,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -5913,9 +5908,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5935,7 +5930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -5955,7 +5950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -5987,9 +5982,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6009,7 +6004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -6029,7 +6024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -6049,7 +6044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -6069,7 +6064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -6089,9 +6084,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -6109,9 +6104,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -6141,9 +6136,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6169,7 +6164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -6195,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -6221,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -6247,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -6273,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -6299,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -6325,9 +6320,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -6351,9 +6346,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -6377,9 +6372,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -6415,9 +6410,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6443,7 +6438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -6469,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -6495,9 +6490,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -6533,9 +6528,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6549,7 +6544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -6563,7 +6558,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -6577,7 +6572,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -6591,7 +6586,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -6605,7 +6600,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -6619,7 +6614,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -6633,9 +6628,9 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -6647,9 +6642,9 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -6661,9 +6656,9 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>

--- a/analysis/all_sites/raw_data/Ramioul_lithic_analysis.xlsx
+++ b/analysis/all_sites/raw_data/Ramioul_lithic_analysis.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="93">
   <si>
     <t>site</t>
   </si>
@@ -322,12 +322,6 @@
   </si>
   <si>
     <t>R-020</t>
-  </si>
-  <si>
-    <t>application.Pradnikmethod</t>
-  </si>
-  <si>
-    <t>frequency.application.Pradnikmethod</t>
   </si>
 </sst>
 </file>
@@ -661,7 +655,7 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,10 +704,10 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
         <v>16</v>
